--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1081617.119636377</v>
+        <v>-1084173.435463627</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>13.77617170029472</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>381.9108136858651</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>3.679479337345758</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>114.3606976213223</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>288.9048657217762</v>
       </c>
       <c r="C5" t="n">
-        <v>303.3106897765212</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>255.1514878040038</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>174.0445447513306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>237.7392564328514</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>233.6829599607964</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.16120366558484</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>209.1277834160256</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012547</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>18.95488441967317</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>116.2873251119292</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>99.86023999965418</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>173.2052365248848</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1811323375794</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089713</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>26.1362719570585</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>156.3923706291105</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.2043849316213</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,16 +2953,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.5505590167096</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096056</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1892.184635123826</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1523.222118183415</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.956419576664</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>779.1681669784198</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3311.690496659379</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3105.712749043601</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3105.712749043601</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>3105.712749043601</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796417</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.184635123826</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4495,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>917.1703600228861</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U4" t="n">
-        <v>917.1703600228861</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V4" t="n">
-        <v>917.1703600228861</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="W4" t="n">
-        <v>917.1703600228861</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="X4" t="n">
-        <v>689.1808091248688</v>
+        <v>182.0279726153373</v>
       </c>
       <c r="Y4" t="n">
-        <v>689.1808091248688</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2240.58245709072</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066532</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>2240.58245709072</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2638.933768848452</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>2638.933768848452</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>2638.933768848452</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>2638.933768848452</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>2638.933768848452</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>3103.839206178698</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>2814.736339304341</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V7" t="n">
-        <v>2814.736339304341</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W7" t="n">
-        <v>2814.736339304341</v>
+        <v>441.3916148281111</v>
       </c>
       <c r="X7" t="n">
-        <v>2814.736339304341</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y7" t="n">
-        <v>2638.933768848452</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2185.04550437017</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1816.082987429758</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410103</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="X8" t="n">
-        <v>2961.784676410103</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y8" t="n">
-        <v>2571.645344434291</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.3452334219999</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C10" t="n">
-        <v>528.3452334219999</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219999</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>541.6393785387522</v>
+        <v>709.6468205494722</v>
       </c>
       <c r="X10" t="n">
-        <v>541.6393785387522</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="Y10" t="n">
-        <v>541.6393785387522</v>
+        <v>481.6572696514548</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5194,55 +5194,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487563</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487563</v>
+        <v>2244.961901336507</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831761</v>
+        <v>1955.886674680705</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831761</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="W13" t="n">
-        <v>1618.5701487948</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U16" t="n">
-        <v>2052.406834234631</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028744</v>
+        <v>1789.822296052221</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1500.405126015261</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1272.415575117243</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973713</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,22 +5531,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,16 +5586,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5604,16 +5604,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2420.562808876161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2420.562808876161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2131.487582220359</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -6023,10 +6023,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>372.4964262156764</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>867.8220324314351</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>546.5917956728314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>398.6787020904383</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>251.7887545925279</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,10 +6218,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,22 +6251,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>924.8344286397182</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111719</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,22 +6883,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6926,7 +6926,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150022</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,22 +7120,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7257,19 +7257,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
@@ -7327,13 +7327,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311325</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>150.8995423128889</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7588,10 +7588,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7734,13 +7734,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144.9623738269437</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>95.41159008788111</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.327124970188493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,19 +22711,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>215.8694699388234</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>149.3633632506698</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>104.2239557307725</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>198.4505659076151</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>109.422330277108</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>79.97174018228311</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>112.9792378643594</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>110.0033420516648</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>154.8900140445861</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>9.131767663158371</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.62759525031595</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.63391537253455</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-5.846434575361833e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1225968.498660317</v>
+        <v>1225968.498660318</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1225968.498660317</v>
+        <v>1225968.498660318</v>
       </c>
     </row>
     <row r="8">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943218</v>
+        <v>169252.1408943216</v>
       </c>
       <c r="C2" t="n">
+        <v>205260.4424660708</v>
+      </c>
+      <c r="D2" t="n">
         <v>205260.4424660707</v>
       </c>
-      <c r="D2" t="n">
-        <v>205260.4424660708</v>
-      </c>
       <c r="E2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225016</v>
@@ -26329,25 +26329,25 @@
         <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="I2" t="n">
         <v>201786.6499225016</v>
-      </c>
-      <c r="I2" t="n">
-        <v>201786.6499225015</v>
       </c>
       <c r="J2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660709</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691501</v>
+        <v>11387.33216691484</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26430,34 +26430,34 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="H4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="H4" t="n">
-        <v>16046.58397189199</v>
-      </c>
       <c r="I4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189206</v>
+        <v>16046.583971892</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24037.44323498546</v>
+      </c>
+      <c r="O4" t="n">
         <v>24037.44323498545</v>
       </c>
-      <c r="M4" t="n">
-        <v>24037.44323498545</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24037.44323498545</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>24037.44323498544</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24037.44323498545</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1278813.877561579</v>
+        <v>-1279173.960577297</v>
       </c>
       <c r="C6" t="n">
-        <v>3729.757800624895</v>
+        <v>3729.757800624939</v>
       </c>
       <c r="D6" t="n">
-        <v>3729.757800624953</v>
+        <v>3729.75780062488</v>
       </c>
       <c r="E6" t="n">
-        <v>-240794.9256806526</v>
+        <v>-240829.6636060888</v>
       </c>
       <c r="F6" t="n">
-        <v>84617.53612670251</v>
+        <v>84582.79820126685</v>
       </c>
       <c r="G6" t="n">
-        <v>84617.53612670251</v>
+        <v>84582.79820126701</v>
       </c>
       <c r="H6" t="n">
-        <v>84617.53612670246</v>
+        <v>84582.79820126676</v>
       </c>
       <c r="I6" t="n">
-        <v>84617.53612670243</v>
+        <v>84582.798201267</v>
       </c>
       <c r="J6" t="n">
-        <v>-132913.666270575</v>
+        <v>-132948.4041960108</v>
       </c>
       <c r="K6" t="n">
-        <v>84617.53612670241</v>
+        <v>84582.79820126676</v>
       </c>
       <c r="L6" t="n">
-        <v>58631.16538353829</v>
+        <v>58631.16538353858</v>
       </c>
       <c r="M6" t="n">
-        <v>-6996.144558341635</v>
+        <v>-6996.144558341766</v>
       </c>
       <c r="N6" t="n">
+        <v>78058.88337716996</v>
+      </c>
+      <c r="O6" t="n">
         <v>78058.88337717007</v>
       </c>
-      <c r="O6" t="n">
-        <v>78058.88337717004</v>
-      </c>
       <c r="P6" t="n">
-        <v>78058.88337717007</v>
+        <v>78058.8833771701</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237.7714678365369</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>102.7742800731582</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>93.82897594170436</v>
       </c>
       <c r="C5" t="n">
-        <v>61.96220199448635</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>31.37151053258722</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.5401086007642</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>116.9437851878316</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>115.5580087566166</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.6707765163525</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>77.39521492056542</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28287,13 +28287,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31619,10 +31619,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>288.8958573929172</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>417.5509096439927</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>417.5509096439927</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>518.0009690113193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>402.2342772868842</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33518,10 +33518,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33977,22 +33977,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>663.4727207607269</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>182.7118610708585</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34454,7 +34454,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>436.0678650906015</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35267,10 +35267,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>157.5541453095838</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066263</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>279.7094706696337</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191329</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010443</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>471.5003028244908</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>279.7094706696337</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>386.659256927986</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M30" t="n">
-        <v>235.501032152577</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>263.67989750701</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37166,10 +37166,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,16 +37464,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980851</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>520.8764763162825</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>55.8742344041918</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>302.0934576762713</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
